--- a/resources/resume.xlsx
+++ b/resources/resume.xlsx
@@ -382,7 +382,7 @@
     <t>APIs, LLMs, NLP, AWS, leadership, dashboards</t>
   </si>
   <si>
-    <t xml:space="preserve">While here, I've developed proficiency in Python, webscraping and application programming interfaces (APIs), large-language models (LLMs), natural language processing (NLP), building automated PDFs with LaTeX, and dashboard design with RShiny. With these tools, I'm able to visualize data interactively and analyze vast amounts of unstructured text data.
+    <t xml:space="preserve">I've developed proficiency in Python, webscraping and application programming interfaces (APIs), large-language models (LLMs), natural language processing (NLP), building automated PDFs with LaTeX, and dashboard design with RShiny. With these tools, I'm able to visualize data interactively and analyze vast amounts of unstructured text data.
 </t>
   </si>
   <si>
@@ -623,8 +623,7 @@
     <t>https://www.aap.ucla.edu/</t>
   </si>
   <si>
-    <t>Out of many teaching opportunities at UCLA, I chose this program for its emphasis on accessible, non-intimidating learning, while supporting student populations that have been historically overlooked. I consider many tutoring companies to be disorganized at best and predatory at worst, a topic I expand on in my project on high-impact tutoring below, so I choose the places I work with carefully. This position has given me experience in small-group facilitation. I often received feedback that students felt included and safe in my interactive online sessions.
-While here, I led a project to further improve how employees are trained. I conducted qualitative research in small groups of current employees on the challenges they faced in their positions and the strategies they adopted or invented.</t>
+    <t>Out of many teaching opportunities at UCLA, I chose this program for its emphasis on accessible learning, while supporting student populations that have been historically overlooked. Many tutoring companies could benefit from higher standards around pedagogical training, a topic I expand on in my &lt;a href="#projects"&gt;project on high-impact tutoring&lt;/a&gt; below. I often received feedback that students felt included and safe in my interactive, small-group online sessions. In my last quarter, I led a project to further improve how employees are trained. I conducted qualitative research in small groups of current employees on the challenges they faced in their positions and the strategies they adopted or invented.</t>
   </si>
   <si>
     <t>Behavioral Neuroscience Lab</t>
@@ -1194,8 +1193,7 @@
     <t>Presidential Public Service Fellow</t>
   </si>
   <si>
-    <t>I applied for a cross-campus policy program on a whim, and I was so lucky to be able to learn so much about California governance as a psychobiology major. I wrote briefings for the state superintendent of California.
-I had the chance here to research the history and current climate around affirmative action and American Indian studies.</t>
+    <t>I applied for a cross-campus policy program on a whim, and I was so lucky to be able to learn so much about California governance as a psychobiology major. I wrote briefings for the state superintendent of California. I had the chance here to research the history and current climate around affirmative action and American Indian studies.</t>
   </si>
   <si>
     <t>AP Micro</t>
@@ -1222,7 +1220,7 @@
     <t>quantitative research</t>
   </si>
   <si>
-    <t>56, 83, 54</t>
+    <t>56, 83, 54, 86</t>
   </si>
   <si>
     <t>Research Assistant</t>
@@ -1240,9 +1238,7 @@
     <t>Carolyn D. Smith Education Award</t>
   </si>
   <si>
-    <t>With the support of a great team of researchers from across the country, I engaged in countless conversations about hierarchical linear regression, Likert analysis, GitHub, blocked designs, and everything else relating to educational psychology and statistics. Here, I conducted an independent project on improving computer-science education for marginalized populations based on my graduate student advisor's work. Check out the completed paper below.
-This project gave me a chance to apply both qualitative and quantitative research methods, such as open-response coding and survival curve analysis. Future explorations could include sentiment analysis and other methods inspired by machine learning.
-For this position, I read a textbook on R over the summer. This was the most self-learning I have ever done, and it has been incredibly helpful in my work.</t>
+    <t>I spent a year discussing hierarchical linear regression, Likert analysis, GitHub, blocked designs, and everything else relating to educational psychology and statistics with a great team of researchers from across the country. Here, I conducted an independent project on improving computer-science education for marginalized populations based on my graduate student advisor's work. Check out the completed paper below. This project gave me a chance to apply both qualitative and quantitative research methods, such as open-response coding and survival curve analysis. Future explorations could include sentiment analysis and other methods inspired by machine learning. To prepare for this position, I read Hadley Wickham's &lt;a href="https://r4ds.hadley.nz/"&gt;R for Data Science&lt;/a&gt;, which it has been incredibly helpful in my work.</t>
   </si>
   <si>
     <t>53, 56</t>
@@ -1572,7 +1568,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1603,6 +1598,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3000,7 +2996,7 @@
       <c r="O27" s="16">
         <v>73051.0</v>
       </c>
-      <c r="Q27" s="38" t="s">
+      <c r="Q27" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3057,7 +3053,7 @@
       <c r="C29" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="23" t="s">
@@ -3145,7 +3141,7 @@
       <c r="C31" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="23" t="s">
@@ -3343,7 +3339,7 @@
       <c r="H36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="40" t="s">
         <v>145</v>
       </c>
       <c r="J36" s="21" t="s">
@@ -3382,7 +3378,7 @@
       <c r="H37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="40" t="s">
         <v>148</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -3468,7 +3464,7 @@
       <c r="H39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="40" t="s">
         <v>156</v>
       </c>
       <c r="J39" s="21" t="s">
@@ -3550,7 +3546,7 @@
       <c r="H41" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="I41" s="40" t="s">
         <v>162</v>
       </c>
       <c r="J41" s="21" t="s">
@@ -3566,7 +3562,7 @@
       <c r="N41" s="16">
         <v>43831.0</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O41" s="41">
         <v>43891.0</v>
       </c>
     </row>
@@ -3621,7 +3617,7 @@
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="38" t="s">
         <v>167</v>
       </c>
       <c r="E43" s="23" t="s">
@@ -3761,7 +3757,7 @@
       <c r="H46" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="41" t="s">
+      <c r="I46" s="40" t="s">
         <v>181</v>
       </c>
       <c r="J46" s="21" t="s">
@@ -3843,7 +3839,7 @@
       <c r="H48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="42" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="21" t="s">
@@ -3915,7 +3911,7 @@
       <c r="C50" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>194</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -4002,7 +3998,7 @@
       <c r="C52" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="42" t="s">
         <v>201</v>
       </c>
       <c r="E52" s="23" t="s">
@@ -4043,7 +4039,7 @@
       <c r="C53" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="42" t="s">
         <v>203</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -4170,7 +4166,7 @@
       <c r="C56" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="40" t="s">
         <v>212</v>
       </c>
       <c r="E56" s="20" t="s">
@@ -4396,7 +4392,7 @@
       <c r="A62" s="18">
         <v>126.0</v>
       </c>
-      <c r="B62" s="44"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="11" t="b">
         <v>0</v>
       </c>
@@ -4433,7 +4429,7 @@
       <c r="A63" s="18">
         <v>127.0</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>228</v>
       </c>
       <c r="C63" s="11" t="b">
@@ -4472,7 +4468,7 @@
       <c r="A64" s="18">
         <v>128.0</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="11" t="b">
         <v>0</v>
       </c>
@@ -4904,7 +4900,7 @@
       <c r="H75" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="42" t="s">
         <v>255</v>
       </c>
       <c r="J75" s="21" t="s">
@@ -5060,7 +5056,7 @@
       <c r="C80" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="45" t="s">
         <v>262</v>
       </c>
       <c r="E80" s="23" t="s">
@@ -5103,7 +5099,7 @@
       <c r="C81" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="46" t="s">
         <v>267</v>
       </c>
       <c r="E81" s="23" t="s">
@@ -5146,7 +5142,7 @@
       <c r="C82" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="42" t="s">
         <v>270</v>
       </c>
       <c r="E82" s="23" t="s">
@@ -5191,7 +5187,7 @@
       <c r="C83" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="47" t="s">
         <v>272</v>
       </c>
       <c r="E83" s="23" t="s">
@@ -5277,7 +5273,7 @@
       <c r="C85" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="48" t="s">
         <v>277</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -5936,7 +5932,7 @@
       <c r="A102" s="18">
         <v>28.0</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="43" t="s">
         <v>320</v>
       </c>
       <c r="C102" s="11" t="b">
@@ -6157,7 +6153,7 @@
       <c r="C107" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="40" t="s">
         <v>336</v>
       </c>
       <c r="E107" s="20" t="s">
@@ -6341,7 +6337,7 @@
       <c r="C112" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="42" t="s">
         <v>349</v>
       </c>
       <c r="E112" s="23" t="s">
@@ -6384,7 +6380,7 @@
       <c r="C113" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D113" s="41" t="s">
+      <c r="D113" s="40" t="s">
         <v>352</v>
       </c>
       <c r="E113" s="23" t="s">
@@ -6427,7 +6423,7 @@
       <c r="C114" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D114" s="40" t="s">
         <v>354</v>
       </c>
       <c r="E114" s="23" t="s">
@@ -6470,7 +6466,7 @@
       <c r="C115" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="42" t="s">
         <v>357</v>
       </c>
       <c r="E115" s="13" t="s">
@@ -6510,7 +6506,7 @@
       <c r="C116" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D116" s="41" t="s">
+      <c r="D116" s="40" t="s">
         <v>359</v>
       </c>
       <c r="E116" s="23" t="s">
@@ -6588,7 +6584,7 @@
       <c r="C118" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D118" s="41" t="s">
+      <c r="D118" s="40" t="s">
         <v>364</v>
       </c>
       <c r="E118" s="23" t="s">
@@ -6752,7 +6748,7 @@
       <c r="C122" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D122" s="38" t="s">
+      <c r="D122" s="48" t="s">
         <v>375</v>
       </c>
       <c r="E122" s="9" t="s">
@@ -6832,7 +6828,7 @@
       <c r="C124" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D124" s="38" t="s">
+      <c r="D124" s="48" t="s">
         <v>381</v>
       </c>
       <c r="E124" s="13" t="s">
@@ -6863,7 +6859,7 @@
       <c r="P124" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="Q124" s="38" t="s">
+      <c r="Q124" s="9" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7003,7 +6999,7 @@
       <c r="H128" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I128" s="41" t="s">
+      <c r="I128" s="40" t="s">
         <v>398</v>
       </c>
       <c r="J128" s="21" t="s">
@@ -7025,7 +7021,7 @@
       <c r="P128" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="Q128" s="38" t="s">
+      <c r="Q128" s="14" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7086,7 +7082,7 @@
       <c r="C130" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D130" s="43" t="s">
+      <c r="D130" s="42" t="s">
         <v>407</v>
       </c>
       <c r="E130" s="23" t="s">
@@ -7133,7 +7129,7 @@
       <c r="C131" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D131" s="43" t="s">
+      <c r="D131" s="42" t="s">
         <v>411</v>
       </c>
       <c r="E131" s="13" t="s">
@@ -7176,7 +7172,7 @@
       <c r="C132" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D132" s="43" t="s">
+      <c r="D132" s="42" t="s">
         <v>415</v>
       </c>
       <c r="E132" s="13" t="s">
@@ -7219,7 +7215,7 @@
       <c r="C133" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D133" s="41" t="s">
+      <c r="D133" s="40" t="s">
         <v>417</v>
       </c>
       <c r="E133" s="20" t="s">
@@ -7301,7 +7297,7 @@
       <c r="C135" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D135" s="41" t="s">
+      <c r="D135" s="40" t="s">
         <v>424</v>
       </c>
       <c r="E135" s="23" t="s">
@@ -7510,7 +7506,7 @@
       <c r="C140" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="9" t="s">
         <v>434</v>
       </c>
       <c r="E140" s="9" t="s">
@@ -7519,7 +7515,7 @@
       <c r="F140" s="12"/>
       <c r="G140" s="8"/>
       <c r="H140" s="13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>435</v>
@@ -7567,7 +7563,7 @@
       <c r="N141" s="16">
         <v>42856.0</v>
       </c>
-      <c r="O141" s="42">
+      <c r="O141" s="41">
         <v>43221.0</v>
       </c>
     </row>
